--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234A3EF9-BB76-436F-B5F3-CDF74F20ACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A869E90-BDD4-4E3D-A1F0-3B715D3E66C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>Question</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/removing-stars-from-a-string/solutions/3402241/easy-understand-simple-stack-method-java-pyhton-c/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>106. Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/solutions/3304288/recursive-java-solution-image-explanation/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Map all of the node values to their index to setup before recursion. The rightmost element in the postorder is always the root element. (Left) the left subtree is all of the inorder to the left of the split point. (Right) the right subtree is all of the postorder to the right. We get the size of left with root index - inorder start. The base case of recursion is if inorder start &gt; inorder end || post start &gt; post end.</t>
   </si>
 </sst>
 </file>
@@ -657,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,6 +1086,23 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1104,6 +1130,7 @@
     <hyperlink ref="E22" r:id="rId21" xr:uid="{1956C67A-3500-4DC3-A780-F20F49085C4E}"/>
     <hyperlink ref="E23" r:id="rId22" xr:uid="{6104026A-5324-428C-A482-10767892E1D3}"/>
     <hyperlink ref="E24" r:id="rId23" xr:uid="{26DD29A2-F783-406F-B2C5-7B63D770750C}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{ACAEC1CD-10DF-4856-8EC9-B5984A41BBD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A869E90-BDD4-4E3D-A1F0-3B715D3E66C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7436521-DA41-4B32-BCA0-BD94879F2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Question</t>
   </si>
@@ -315,6 +315,27 @@
   </si>
   <si>
     <t>Map all of the node values to their index to setup before recursion. The rightmost element in the postorder is always the root element. (Left) the left subtree is all of the inorder to the left of the split point. (Right) the right subtree is all of the postorder to the right. We get the size of left with root index - inorder start. The base case of recursion is if inorder start &gt; inorder end || post start &gt; post end.</t>
+  </si>
+  <si>
+    <t>841. Keys and Rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/keys-and-rooms/solutions/4258873/java-clean-code/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Classic Graph DFS (or BFS) but we traverse a List, rather than a 2d array. Maintain a visited array and a set for keys. Traverse all the keys at each room.</t>
+  </si>
+  <si>
+    <t>1137. N-th Tribonacci Number</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Classic Fibonacci. Use complete DP Evolution steps. Practice diagram, explanation, and analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/n-th-tribonacci-number/solutions/4182906/easy-and-understandable-solution-beets-100-percents-user/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -666,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1124,40 @@
       </c>
       <c r="E25" s="2" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1131,6 +1186,8 @@
     <hyperlink ref="E23" r:id="rId22" xr:uid="{6104026A-5324-428C-A482-10767892E1D3}"/>
     <hyperlink ref="E24" r:id="rId23" xr:uid="{26DD29A2-F783-406F-B2C5-7B63D770750C}"/>
     <hyperlink ref="E25" r:id="rId24" xr:uid="{ACAEC1CD-10DF-4856-8EC9-B5984A41BBD9}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{0D9AE99D-BD2B-492B-9FF7-59E76EF291AF}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{98BF0048-C974-4034-8134-1C8055BB9AAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7436521-DA41-4B32-BCA0-BD94879F2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88BACC-B83D-4DD9-8268-F3EB78766846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>Question</t>
   </si>
@@ -336,6 +336,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/n-th-tribonacci-number/solutions/4182906/easy-and-understandable-solution-beets-100-percents-user/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>2215. Find the Difference of Two Arrays</t>
+  </si>
+  <si>
+    <t>Symmetric Difference with HashSets. Create and populate Hashlists, convert to ArrayLists, then use removeAll() method to find the symmetric difference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-the-difference-of-two-arrays/solutions/4390106/97-beats-only-using-hashset-friendly/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>2095. Delete the Middle Node of a Linked List</t>
+  </si>
+  <si>
+    <t>1st pass to find the length, calculate the mid point, then traverse and connect prev.next to prev.next.next, or to slow to fast, skipping the nth node.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/delete-the-middle-node-of-a-linked-list/solutions/4335889/100-best-approach-slow-fast-pointers/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -687,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,6 +1176,40 @@
       </c>
       <c r="E27" s="2" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1188,6 +1240,8 @@
     <hyperlink ref="E25" r:id="rId24" xr:uid="{ACAEC1CD-10DF-4856-8EC9-B5984A41BBD9}"/>
     <hyperlink ref="E26" r:id="rId25" xr:uid="{0D9AE99D-BD2B-492B-9FF7-59E76EF291AF}"/>
     <hyperlink ref="E27" r:id="rId26" xr:uid="{98BF0048-C974-4034-8134-1C8055BB9AAA}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{F27AD6A2-14B4-4663-BC6B-F7F546B8C3C0}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{E51EAA8B-2613-4EAF-93A7-6D7A934EA177}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88BACC-B83D-4DD9-8268-F3EB78766846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5822C172-3777-43A6-B400-4AC3684754E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>Question</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/delete-the-middle-node-of-a-linked-list/solutions/4335889/100-best-approach-slow-fast-pointers/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>114. Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/flatten-binary-tree-to-linked-list/solutions/36987/straightforward-java-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Recursively flatten left and right subtree and paste each sublist to the right child of the root. Set left child to null.</t>
   </si>
 </sst>
 </file>
@@ -705,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1219,23 @@
       </c>
       <c r="E29" s="2" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1242,6 +1268,7 @@
     <hyperlink ref="E27" r:id="rId26" xr:uid="{98BF0048-C974-4034-8134-1C8055BB9AAA}"/>
     <hyperlink ref="E28" r:id="rId27" xr:uid="{F27AD6A2-14B4-4663-BC6B-F7F546B8C3C0}"/>
     <hyperlink ref="E29" r:id="rId28" xr:uid="{E51EAA8B-2613-4EAF-93A7-6D7A934EA177}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{831D36E2-2783-4F25-91B9-3C96F5368674}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5822C172-3777-43A6-B400-4AC3684754E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A431F3A0-9D48-4E11-BA49-4F717BA6D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>Question</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>Recursively flatten left and right subtree and paste each sublist to the right child of the root. Set left child to null.</t>
+  </si>
+  <si>
+    <t>1456. Maximum Number of Vowels in a Substring of Given Length</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Classic sliding window. Make a function for checking vowels manually. There is no need to handle left pointer condition, as the window size will be static. Just move the right pointer to k initially.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-number-of-vowels-in-a-substring-of-given-length/solutions/3487426/java-code-using-sliding-window/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -714,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,6 +1248,23 @@
       </c>
       <c r="E30" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1269,6 +1298,7 @@
     <hyperlink ref="E28" r:id="rId27" xr:uid="{F27AD6A2-14B4-4663-BC6B-F7F546B8C3C0}"/>
     <hyperlink ref="E29" r:id="rId28" xr:uid="{E51EAA8B-2613-4EAF-93A7-6D7A934EA177}"/>
     <hyperlink ref="E30" r:id="rId29" xr:uid="{831D36E2-2783-4F25-91B9-3C96F5368674}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{1FE02A47-17AF-49C9-819C-1E7D33396D98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A431F3A0-9D48-4E11-BA49-4F717BA6D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F33AD49-BD23-4E3A-BA16-E79210C9717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/maximum-number-of-vowels-in-a-substring-of-given-length/solutions/3487426/java-code-using-sliding-window/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>724. Find Pivot Index</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-pivot-index/solutions/4196154/easy-to-understand-approach/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>The optimal approach is to store 2 arrays, 1 for suffix and 1 for prefix, populate those, then search where they are equal. 2 Passes, 1 to populate right sum first, then 2nd will decrement from it, while populating left sum and comparing the 2.</t>
+  </si>
+  <si>
+    <t>547. Number of Provinces</t>
   </si>
 </sst>
 </file>
@@ -726,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1277,31 @@
       </c>
       <c r="E31" s="2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1299,6 +1336,7 @@
     <hyperlink ref="E29" r:id="rId28" xr:uid="{E51EAA8B-2613-4EAF-93A7-6D7A934EA177}"/>
     <hyperlink ref="E30" r:id="rId29" xr:uid="{831D36E2-2783-4F25-91B9-3C96F5368674}"/>
     <hyperlink ref="E31" r:id="rId30" xr:uid="{1FE02A47-17AF-49C9-819C-1E7D33396D98}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{3B7B87A5-78F0-4B00-BB35-0A2D4D761723}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F33AD49-BD23-4E3A-BA16-E79210C9717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D3073-723A-4CD8-BB95-A81A777C5AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
   <si>
     <t>Question</t>
   </si>
@@ -386,7 +386,22 @@
     <t>The optimal approach is to store 2 arrays, 1 for suffix and 1 for prefix, populate those, then search where they are equal. 2 Passes, 1 to populate right sum first, then 2nd will decrement from it, while populating left sum and comparing the 2.</t>
   </si>
   <si>
-    <t>547. Number of Provinces</t>
+    <t>117. Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Use BFS for level order traversal. Connect the node (set node.next) to q.peek(), unless it is the last node of the level. DFS is possible, but less intuitive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/solutions/3771036/java-the-simplest-solution-bfs/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>112. Path Sum</t>
+  </si>
+  <si>
+    <t>Recursive DFS. The crux is to pass sum-root.val as the target sum to each recursive call. Handle  the base case of null (false), both children null AND current diff = 0 (true). Recursive call is return dfs(left, cur) OR dfs(right, cur). Think of all the cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/path-sum/solutions/3977919/easy-solution-python3-c-c-c-java-explain-line-by-line-with-image/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -738,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,12 +1311,38 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +1378,8 @@
     <hyperlink ref="E30" r:id="rId29" xr:uid="{831D36E2-2783-4F25-91B9-3C96F5368674}"/>
     <hyperlink ref="E31" r:id="rId30" xr:uid="{1FE02A47-17AF-49C9-819C-1E7D33396D98}"/>
     <hyperlink ref="E32" r:id="rId31" xr:uid="{3B7B87A5-78F0-4B00-BB35-0A2D4D761723}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{95DD2349-D931-4A03-BB97-5CD7303127E1}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{16963203-6A0F-4E0F-9FD3-132131942214}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D3073-723A-4CD8-BB95-A81A777C5AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E09FBB-C8D2-4320-B088-7F9AE5BC3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
   <si>
     <t>Question</t>
   </si>
@@ -402,6 +402,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/path-sum/solutions/3977919/easy-solution-python3-c-c-c-java-explain-line-by-line-with-image/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>427. Construct Quad Tree</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/construct-quad-tree/solutions/3234703/clean-codes-full-explanation-helper-method-c-java-python3/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Straightforward OOP and grid recursion. Have a helper function and use a 2d loop to check if all values are the same. Use the same input grid and pointers to recursively call each subgrid.</t>
   </si>
 </sst>
 </file>
@@ -753,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,6 +1355,23 @@
       </c>
       <c r="E34" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1380,6 +1409,7 @@
     <hyperlink ref="E32" r:id="rId31" xr:uid="{3B7B87A5-78F0-4B00-BB35-0A2D4D761723}"/>
     <hyperlink ref="E33" r:id="rId32" xr:uid="{95DD2349-D931-4A03-BB97-5CD7303127E1}"/>
     <hyperlink ref="E34" r:id="rId33" xr:uid="{16963203-6A0F-4E0F-9FD3-132131942214}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{2E7BF211-9A65-4432-8AC6-E305E5481B16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E09FBB-C8D2-4320-B088-7F9AE5BC3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA6E4D-75C0-43C2-A06F-2F433AA1F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
   <si>
     <t>Question</t>
   </si>
@@ -414,6 +414,15 @@
   </si>
   <si>
     <t>Straightforward OOP and grid recursion. Have a helper function and use a 2d loop to check if all values are the same. Use the same input grid and pointers to recursively call each subgrid.</t>
+  </si>
+  <si>
+    <t>328. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>The crux is that as we iterate the list, we divide them into 2 separate lists - connecting each by skipping 1 node, then connect them at the end. Initialize the nodes: odd, even (as odd+1), and evenHead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/odd-even-linked-list/solutions/1606975/java-2-solutions-explanation-using-image-without-space/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -765,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,6 +1381,23 @@
       </c>
       <c r="E35" s="2" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1410,6 +1436,7 @@
     <hyperlink ref="E33" r:id="rId32" xr:uid="{95DD2349-D931-4A03-BB97-5CD7303127E1}"/>
     <hyperlink ref="E34" r:id="rId33" xr:uid="{16963203-6A0F-4E0F-9FD3-132131942214}"/>
     <hyperlink ref="E35" r:id="rId34" xr:uid="{2E7BF211-9A65-4432-8AC6-E305E5481B16}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{2C492EB7-7E6E-43F6-8E8C-97E2260B48DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA6E4D-75C0-43C2-A06F-2F433AA1F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8619111-B882-4066-A641-A12F7DD3B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="132">
   <si>
     <t>Question</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/odd-even-linked-list/solutions/1606975/java-2-solutions-explanation-using-image-without-space/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>735. Asteroid Collision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/asteroid-collision/solutions/3394436/c-java-python-javascript-stack-with-explaination/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>The crux is to repeat the collision check at the top of the list. Just add to stack as you iterate the list, but consider the behavior for each case. Then at the end, populate the res list with the remaining stack elements.</t>
   </si>
 </sst>
 </file>
@@ -774,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,6 +1407,23 @@
       </c>
       <c r="E36" s="2" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1437,6 +1463,7 @@
     <hyperlink ref="E34" r:id="rId33" xr:uid="{16963203-6A0F-4E0F-9FD3-132131942214}"/>
     <hyperlink ref="E35" r:id="rId34" xr:uid="{2E7BF211-9A65-4432-8AC6-E305E5481B16}"/>
     <hyperlink ref="E36" r:id="rId35" xr:uid="{2C492EB7-7E6E-43F6-8E8C-97E2260B48DA}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{7FA8BAF1-B262-4C59-8C55-18E8EBC381DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8619111-B882-4066-A641-A12F7DD3B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C8F7D-F596-4AAA-AD5F-08D57FB0481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
   <si>
     <t>Question</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>The crux is to repeat the collision check at the top of the list. Just add to stack as you iterate the list, but consider the behavior for each case. Then at the end, populate the res list with the remaining stack elements.</t>
+  </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>Create 2 lists, perform dfs on each root node and populate the lists with the leaf values. Then compare lists. You can use l1.equals(l2) instead of traversing the lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/leaf-similar-trees/solutions/2889643/easy-java-solution-using-recursion-and-arraylists-o-n/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -783,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,6 +1433,23 @@
       </c>
       <c r="E37" s="2" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1464,6 +1490,7 @@
     <hyperlink ref="E35" r:id="rId34" xr:uid="{2E7BF211-9A65-4432-8AC6-E305E5481B16}"/>
     <hyperlink ref="E36" r:id="rId35" xr:uid="{2C492EB7-7E6E-43F6-8E8C-97E2260B48DA}"/>
     <hyperlink ref="E37" r:id="rId36" xr:uid="{7FA8BAF1-B262-4C59-8C55-18E8EBC381DE}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{E8445F29-8F3E-469F-8E84-916FDFC5CB09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C8F7D-F596-4AAA-AD5F-08D57FB0481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD439E8F-E409-40CE-A262-35013A58FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="139">
   <si>
     <t>Question</t>
   </si>
@@ -441,6 +441,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/leaf-similar-trees/solutions/2889643/easy-java-solution-using-recursion-and-arraylists-o-n/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>2336. Smallest Number in Infinite Set</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-number-in-infinite-set/solutions/3452140/easy-solution-explained-with-dry-run-minheap-counter-beginner-friendly/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>Use a PriorityQueue (Min Heap) and a Hash Set. To solve for infinite set, we use a min number counter and return counter, and increment it when we "pop". When we addback, we only consider numbers that are greater than the min number counter, and not in the set.</t>
   </si>
 </sst>
 </file>
@@ -792,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,6 +1462,23 @@
       </c>
       <c r="E38" s="2" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1491,6 +1520,7 @@
     <hyperlink ref="E36" r:id="rId35" xr:uid="{2C492EB7-7E6E-43F6-8E8C-97E2260B48DA}"/>
     <hyperlink ref="E37" r:id="rId36" xr:uid="{7FA8BAF1-B262-4C59-8C55-18E8EBC381DE}"/>
     <hyperlink ref="E38" r:id="rId37" xr:uid="{E8445F29-8F3E-469F-8E84-916FDFC5CB09}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{88D49C5D-6104-4B6C-9B91-ED5642D8BF91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD439E8F-E409-40CE-A262-35013A58FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02790A56-3695-4596-BC2C-8F2D97412A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
   <si>
     <t>Question</t>
   </si>
@@ -453,6 +453,18 @@
   </si>
   <si>
     <t>Use a PriorityQueue (Min Heap) and a Hash Set. To solve for infinite set, we use a min number counter and return counter, and increment it when we "pop". When we addback, we only consider numbers that are greater than the min number counter, and not in the set.</t>
+  </si>
+  <si>
+    <t>1768. Merge Strings Alternately</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-strings-alternately/solutions/3429116/easy-solutions-in-java-python-and-c-look-at-once-with-exaplanation/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Iterate with modulus and word length conditions. StringBuilder and while loops are optimal. You can just iterate i and do both conditions at once, without alternating the loop behavior.</t>
   </si>
 </sst>
 </file>
@@ -804,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,6 +1491,23 @@
       </c>
       <c r="E39" s="2" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1521,6 +1550,7 @@
     <hyperlink ref="E37" r:id="rId36" xr:uid="{7FA8BAF1-B262-4C59-8C55-18E8EBC381DE}"/>
     <hyperlink ref="E38" r:id="rId37" xr:uid="{E8445F29-8F3E-469F-8E84-916FDFC5CB09}"/>
     <hyperlink ref="E39" r:id="rId38" xr:uid="{88D49C5D-6104-4B6C-9B91-ED5642D8BF91}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{8A18F5D6-4553-453B-800F-B5523B2CD512}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02790A56-3695-4596-BC2C-8F2D97412A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0157FB-7B21-4595-B5FD-FC5E87ACFE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
   <si>
     <t>Question</t>
   </si>
@@ -465,6 +465,24 @@
   </si>
   <si>
     <t>Iterate with modulus and word length conditions. StringBuilder and while loops are optimal. You can just iterate i and do both conditions at once, without alternating the loop behavior.</t>
+  </si>
+  <si>
+    <t>1071. Greatest Common Divisor of Strings</t>
+  </si>
+  <si>
+    <t>First check if GCD is possible with str1 + str2 == str2 + str1. We use the Euclidean algorithm to recursively find the substring.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/greatest-common-divisor-of-strings/solutions/3124997/super-easy-solution-fully-explained-c-python3-java/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>605. Can Place Flowers</t>
+  </si>
+  <si>
+    <t>The Optimal solution is the Greedy solution. Greedily place a flower at every vacant spot from left to right. The Naïve solution is that you can do a for loop, checking each triplet if they are all 0's, and handle th edge cases (n=0, l=1, l=2, starting i and ending i. Increment a count.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/can-place-flowers/solutions/103898/java-greedy-solution-o-flowerbed-beats-100/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -816,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,6 +1526,40 @@
       </c>
       <c r="E40" s="2" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1551,6 +1603,8 @@
     <hyperlink ref="E38" r:id="rId37" xr:uid="{E8445F29-8F3E-469F-8E84-916FDFC5CB09}"/>
     <hyperlink ref="E39" r:id="rId38" xr:uid="{88D49C5D-6104-4B6C-9B91-ED5642D8BF91}"/>
     <hyperlink ref="E40" r:id="rId39" xr:uid="{8A18F5D6-4553-453B-800F-B5523B2CD512}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{0B83878A-FA4D-4F2F-845D-8BE73C9984B5}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{AA2A8642-66CC-40F2-9D86-3ADA93EAF544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0157FB-7B21-4595-B5FD-FC5E87ACFE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033915BF-88CE-42F8-9B08-C142806AB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
   <si>
     <t>Question</t>
   </si>
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/can-place-flowers/solutions/103898/java-greedy-solution-o-flowerbed-beats-100/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/solutions/208241/explanation-for-the-dummy-like-me/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>The crux is that we solve this with a greedy approach. It is always better to buy local minima and sell at the next local high, rather than buy at the global minimum and sell at the global maximum. Use a while loop i &lt; n, and 2 inner while loops for buy and sell, using prices[i+1] to search for conditions.</t>
   </si>
 </sst>
 </file>
@@ -834,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,6 +1569,23 @@
       </c>
       <c r="E42" s="2" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1605,6 +1631,7 @@
     <hyperlink ref="E40" r:id="rId39" xr:uid="{8A18F5D6-4553-453B-800F-B5523B2CD512}"/>
     <hyperlink ref="E41" r:id="rId40" xr:uid="{0B83878A-FA4D-4F2F-845D-8BE73C9984B5}"/>
     <hyperlink ref="E42" r:id="rId41" xr:uid="{AA2A8642-66CC-40F2-9D86-3ADA93EAF544}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{7C169B9E-58F8-43A2-959F-B6D69C630A08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033915BF-88CE-42F8-9B08-C142806AB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AE31F8-BACA-4AE1-8D4B-6F8AF6EC9F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
   <si>
     <t>Question</t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t>The crux is that we solve this with a greedy approach. It is always better to buy local minima and sell at the next local high, rather than buy at the global minimum and sell at the global maximum. Use a while loop i &lt; n, and 2 inner while loops for buy and sell, using prices[i+1] to search for conditions.</t>
+  </si>
+  <si>
+    <t>345. Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reverse-vowels-of-a-string/solutions/3723102/easy-solution-with-simple-explanation-using-two-pointer/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>A classic 2 pointers problem. The crux is to know String manipulation. Strings are immutable in Java, so you need to either convert to char array with char[] chars = s.toCharArray(); and return new String(chars); or use the StringBuilder: StringBuilder sb = newStringBuilder(s); and return sb.toString(); Also, know the efficient vowel checking in Strings with indexOf() == -1.</t>
   </si>
 </sst>
 </file>
@@ -843,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,6 +1595,23 @@
       </c>
       <c r="E43" s="2" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1632,6 +1658,7 @@
     <hyperlink ref="E41" r:id="rId40" xr:uid="{0B83878A-FA4D-4F2F-845D-8BE73C9984B5}"/>
     <hyperlink ref="E42" r:id="rId41" xr:uid="{AA2A8642-66CC-40F2-9D86-3ADA93EAF544}"/>
     <hyperlink ref="E43" r:id="rId42" xr:uid="{7C169B9E-58F8-43A2-959F-B6D69C630A08}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{7E0FE563-83F0-417A-809E-4C245B2C180B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AE31F8-BACA-4AE1-8D4B-6F8AF6EC9F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56BA1F-FBA9-4959-8CC2-4FF929A5CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>Question</t>
   </si>
@@ -501,6 +501,15 @@
   </si>
   <si>
     <t>A classic 2 pointers problem. The crux is to know String manipulation. Strings are immutable in Java, so you need to either convert to char array with char[] chars = s.toCharArray(); and return new String(chars); or use the StringBuilder: StringBuilder sb = newStringBuilder(s); and return sb.toString(); Also, know the efficient vowel checking in Strings with indexOf() == -1.</t>
+  </si>
+  <si>
+    <t>151. Reverse Words in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reverse-words-in-a-string/solutions/47720/clean-java-two-pointers-solution-no-trim-no-split-no-stringbuilder/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>It can be done with no String knowledge, but it is suboptimal. Requires String manipulation knowledge. Use s.trim().split("\\s+); Create a new reversed StringBuilder object, and .append(words[i]) in reverse. .append(" ") for spaces, if i &gt; 0. return reversed.toString().</t>
   </si>
 </sst>
 </file>
@@ -852,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,6 +1621,23 @@
       </c>
       <c r="E44" s="2" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1659,6 +1685,7 @@
     <hyperlink ref="E42" r:id="rId41" xr:uid="{AA2A8642-66CC-40F2-9D86-3ADA93EAF544}"/>
     <hyperlink ref="E43" r:id="rId42" xr:uid="{7C169B9E-58F8-43A2-959F-B6D69C630A08}"/>
     <hyperlink ref="E44" r:id="rId43" xr:uid="{7E0FE563-83F0-417A-809E-4C245B2C180B}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{7752EC12-5225-4880-B825-95D10A8BFC0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56BA1F-FBA9-4959-8CC2-4FF929A5CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96757E3A-702A-49F6-A22A-AD87643A8D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
   <si>
     <t>Question</t>
   </si>
@@ -510,6 +510,15 @@
   </si>
   <si>
     <t>It can be done with no String knowledge, but it is suboptimal. Requires String manipulation knowledge. Use s.trim().split("\\s+); Create a new reversed StringBuilder object, and .append(words[i]) in reverse. .append(" ") for spaces, if i &gt; 0. return reversed.toString().</t>
+  </si>
+  <si>
+    <t>334. Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/increasing-triplet-subsequence/solutions/79004/concise-java-solution-with-comments/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>While it may appear to be a 3 pointers problem, it is not. The crux is to think of the counterexample. It can only be false if it is a decreasing array. Track first and second smallest values as the 1st and 2nd lower bounds.</t>
   </si>
 </sst>
 </file>
@@ -861,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,6 +1647,23 @@
       </c>
       <c r="E45" s="2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1686,6 +1712,7 @@
     <hyperlink ref="E43" r:id="rId42" xr:uid="{7C169B9E-58F8-43A2-959F-B6D69C630A08}"/>
     <hyperlink ref="E44" r:id="rId43" xr:uid="{7E0FE563-83F0-417A-809E-4C245B2C180B}"/>
     <hyperlink ref="E45" r:id="rId44" xr:uid="{7752EC12-5225-4880-B825-95D10A8BFC0A}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{8EEDE120-94D5-475B-86FC-382C4A78446F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96757E3A-702A-49F6-A22A-AD87643A8D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A687A00-EBAC-415B-8615-197B177B34CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
   <si>
     <t>Question</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t>While it may appear to be a 3 pointers problem, it is not. The crux is to think of the counterexample. It can only be false if it is a decreasing array. Track first and second smallest values as the 1st and 2nd lower bounds.</t>
+  </si>
+  <si>
+    <t>443. String Compression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/string-compression/solutions/3245804/clean-codes-full-explanation-two-pointers-c-java-python3/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>One important detail is to track an int res value to return. An important detail is the string conversion: for (final char c : String.valueOf(count).toCharArray()){}. Track the current character being compressed, the count using an inner while loop, then handle on the compressed array and res.</t>
   </si>
 </sst>
 </file>
@@ -870,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,6 +1673,23 @@
       </c>
       <c r="E46" s="2" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1713,6 +1739,7 @@
     <hyperlink ref="E44" r:id="rId43" xr:uid="{7E0FE563-83F0-417A-809E-4C245B2C180B}"/>
     <hyperlink ref="E45" r:id="rId44" xr:uid="{7752EC12-5225-4880-B825-95D10A8BFC0A}"/>
     <hyperlink ref="E46" r:id="rId45" xr:uid="{8EEDE120-94D5-475B-86FC-382C4A78446F}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{3761C615-88AB-4096-9AA0-8F8AE175F06C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A687A00-EBAC-415B-8615-197B177B34CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A0CA6F-ED36-4BBF-8EE8-030E6F7553E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
   <si>
     <t>Question</t>
   </si>
@@ -528,6 +528,15 @@
   </si>
   <si>
     <t>One important detail is to track an int res value to return. An important detail is the string conversion: for (final char c : String.valueOf(count).toCharArray()){}. Track the current character being compressed, the count using an inner while loop, then handle on the compressed array and res.</t>
+  </si>
+  <si>
+    <t>1679. Max Number of K-Sum Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/max-number-of-k-sum-pairs/solutions/2005922/going-from-o-n-2-o-nlogn-o-n-meme/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Sort the array and use 2Sum with count. Make sure to handle the while loop appropriately. 2Sum with HashMap for diffs solution is optimal O(n) time and O(1) space.</t>
   </si>
 </sst>
 </file>
@@ -879,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,6 +1699,23 @@
       </c>
       <c r="E47" s="2" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1740,6 +1766,7 @@
     <hyperlink ref="E45" r:id="rId44" xr:uid="{7752EC12-5225-4880-B825-95D10A8BFC0A}"/>
     <hyperlink ref="E46" r:id="rId45" xr:uid="{8EEDE120-94D5-475B-86FC-382C4A78446F}"/>
     <hyperlink ref="E47" r:id="rId46" xr:uid="{3761C615-88AB-4096-9AA0-8F8AE175F06C}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{273395D3-3AE1-4AA0-B096-A03DDEF380AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A0CA6F-ED36-4BBF-8EE8-030E6F7553E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC5B35-0819-480F-8A8C-D8A134740E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
   <si>
     <t>Question</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>Sort the array and use 2Sum with count. Make sure to handle the while loop appropriately. 2Sum with HashMap for diffs solution is optimal O(n) time and O(1) space.</t>
+  </si>
+  <si>
+    <t>1004. Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>Use sliding window with a for loop for the right pointer, but the inner while condition is "using flips". The crux is that after you use the initial flips, you never need to recover them. Once the flip count is 0, if we encounter a 0 on the right side, simply move the left pointer past a 0 again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/max-consecutive-ones-iii/solutions/247564/java-c-python-sliding-window/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -888,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,6 +1725,23 @@
       </c>
       <c r="E48" s="2" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1767,6 +1793,7 @@
     <hyperlink ref="E46" r:id="rId45" xr:uid="{8EEDE120-94D5-475B-86FC-382C4A78446F}"/>
     <hyperlink ref="E47" r:id="rId46" xr:uid="{3761C615-88AB-4096-9AA0-8F8AE175F06C}"/>
     <hyperlink ref="E48" r:id="rId47" xr:uid="{273395D3-3AE1-4AA0-B096-A03DDEF380AF}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{CF031FA4-EC50-47AC-BB6B-1A5C283800C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC5B35-0819-480F-8A8C-D8A134740E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E96742-9D48-4B67-81E0-8F3FEDA3BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="173">
   <si>
     <t>Question</t>
   </si>
@@ -546,6 +546,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/max-consecutive-ones-iii/solutions/247564/java-c-python-sliding-window/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-twin-sum-of-a-linked-list/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>2130. Maximum Twin Sum of a Linked List</t>
+  </si>
+  <si>
+    <t>The crux is to use a stack. Traverse the LL and push temp nodes onto the stack, then while stack size is &gt; half of the original stack size, traverse the LL (first half) again. Get the sums and track the maximum.</t>
   </si>
 </sst>
 </file>
@@ -897,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,6 +1751,23 @@
       </c>
       <c r="E49" s="2" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1794,6 +1820,7 @@
     <hyperlink ref="E47" r:id="rId46" xr:uid="{3761C615-88AB-4096-9AA0-8F8AE175F06C}"/>
     <hyperlink ref="E48" r:id="rId47" xr:uid="{273395D3-3AE1-4AA0-B096-A03DDEF380AF}"/>
     <hyperlink ref="E49" r:id="rId48" xr:uid="{CF031FA4-EC50-47AC-BB6B-1A5C283800C4}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{103E5860-844D-48D9-8919-4722FCFCD75C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E96742-9D48-4B67-81E0-8F3FEDA3BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B630E5-CCF8-47D0-B764-630C0F04896F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="176">
   <si>
     <t>Question</t>
   </si>
@@ -555,6 +555,15 @@
   </si>
   <si>
     <t>The crux is to use a stack. Traverse the LL and push temp nodes onto the stack, then while stack size is &gt; half of the original stack size, traverse the LL (first half) again. Get the sums and track the maximum.</t>
+  </si>
+  <si>
+    <t>274. H-Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/h-index/solutions/70810/a-clean-o-n-solution-in-java/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>The Naïve solution O(nlogn) is the sort in descending order, than get the last number with exceeds the index. The optimal is bucket (counting) sort O(n). The crux is that the result can only range from 0 to the length of the array (pigen hole principle). The we loop from the back with the highest element, then stop when the total value &gt;= i, because we try the biggest i possible.</t>
   </si>
 </sst>
 </file>
@@ -906,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,6 +1777,23 @@
       </c>
       <c r="E50" s="2" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1821,6 +1847,7 @@
     <hyperlink ref="E48" r:id="rId47" xr:uid="{273395D3-3AE1-4AA0-B096-A03DDEF380AF}"/>
     <hyperlink ref="E49" r:id="rId48" xr:uid="{CF031FA4-EC50-47AC-BB6B-1A5C283800C4}"/>
     <hyperlink ref="E50" r:id="rId49" xr:uid="{103E5860-844D-48D9-8919-4722FCFCD75C}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{7597B714-A15D-4B6D-8B51-FA22A867FA42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B630E5-CCF8-47D0-B764-630C0F04896F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC808CD-24BA-4D43-9638-4BE982FA9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
   <si>
     <t>Question</t>
   </si>
@@ -564,6 +564,15 @@
   </si>
   <si>
     <t>The Naïve solution O(nlogn) is the sort in descending order, than get the last number with exceeds the index. The optimal is bucket (counting) sort O(n). The crux is that the result can only range from 0 to the length of the array (pigen hole principle). The we loop from the back with the highest element, then stop when the total value &gt;= i, because we try the biggest i possible.</t>
+  </si>
+  <si>
+    <t>1493. Longest Subarray of 1's After Deleting One Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element/solutions/708112/java-c-python-sliding-window-at-most-one-0/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Classic Sliding Window. With only 1 deletion, we only need to count the first deletion, then greedily move until the next 0 is encountered, compute max window, then move the left pointer past the last 0. If deletion was not used at all, return nums.length - 1. It can be very clean.</t>
   </si>
 </sst>
 </file>
@@ -915,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,6 +1803,23 @@
       </c>
       <c r="E51" s="2" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1848,6 +1874,7 @@
     <hyperlink ref="E49" r:id="rId48" xr:uid="{CF031FA4-EC50-47AC-BB6B-1A5C283800C4}"/>
     <hyperlink ref="E50" r:id="rId49" xr:uid="{103E5860-844D-48D9-8919-4722FCFCD75C}"/>
     <hyperlink ref="E51" r:id="rId50" xr:uid="{7597B714-A15D-4B6D-8B51-FA22A867FA42}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{89A26D84-0FC0-4582-9CA2-22A0A414EF61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC808CD-24BA-4D43-9638-4BE982FA9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AEC886-280B-42A0-A0EE-29A7EE240E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="182">
   <si>
     <t>Question</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>Classic Sliding Window. With only 1 deletion, we only need to count the first deletion, then greedily move until the next 0 is encountered, compute max window, then move the left pointer past the last 0. If deletion was not used at all, return nums.length - 1. It can be very clean.</t>
+  </si>
+  <si>
+    <t>1657. Determine If Two Strings Are Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/determine-if-two-strings-are-close/solutions/4561223/beats-99-46-users-c-java-python-javascript-explained/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>The crux is to understand the permutation and combination principle. The order does not matter, only if the set of items and their frequencies matter. You take counters of counters, or buckets. Collect the frequencies in maps, check if they have the same characters, and then check if the frequencies are equal. It is easiest to sort after the char check, then do a freq check. You can return freq1 == freq2 after sort.</t>
   </si>
 </sst>
 </file>
@@ -924,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,6 +1829,23 @@
       </c>
       <c r="E52" s="2" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1875,6 +1901,7 @@
     <hyperlink ref="E50" r:id="rId49" xr:uid="{103E5860-844D-48D9-8919-4722FCFCD75C}"/>
     <hyperlink ref="E51" r:id="rId50" xr:uid="{7597B714-A15D-4B6D-8B51-FA22A867FA42}"/>
     <hyperlink ref="E52" r:id="rId51" xr:uid="{89A26D84-0FC0-4582-9CA2-22A0A414EF61}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{1AA56464-3EB4-40DB-B7F9-FB6333C21FF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AEC886-280B-42A0-A0EE-29A7EE240E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447AFBF3-EC56-4690-BA16-AECFCA9A1907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
   <si>
     <t>Question</t>
   </si>
@@ -582,6 +582,15 @@
   </si>
   <si>
     <t>The crux is to understand the permutation and combination principle. The order does not matter, only if the set of items and their frequencies matter. You take counters of counters, or buckets. Collect the frequencies in maps, check if they have the same characters, and then check if the frequencies are equal. It is easiest to sort after the char check, then do a freq check. You can return freq1 == freq2 after sort.</t>
+  </si>
+  <si>
+    <t>394. Decode String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/decode-string/solutions/87534/simple-java-solution-using-stack/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>The crux is to use a stacks with the queue. Use a stack for both count and the substring. Whenever you encounter monotonic operations, think of using a stack.</t>
   </si>
 </sst>
 </file>
@@ -933,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,6 +1855,23 @@
       </c>
       <c r="E53" s="2" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1902,6 +1928,7 @@
     <hyperlink ref="E51" r:id="rId50" xr:uid="{7597B714-A15D-4B6D-8B51-FA22A867FA42}"/>
     <hyperlink ref="E52" r:id="rId51" xr:uid="{89A26D84-0FC0-4582-9CA2-22A0A414EF61}"/>
     <hyperlink ref="E53" r:id="rId52" xr:uid="{1AA56464-3EB4-40DB-B7F9-FB6333C21FF7}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{0451FD0D-7DD5-4B5A-8894-28670CAD1CD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447AFBF3-EC56-4690-BA16-AECFCA9A1907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F118745-8E41-4B34-A31D-F0AE0A7E875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
   <si>
     <t>Question</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>The crux is to use a stacks with the queue. Use a stack for both count and the substring. Whenever you encounter monotonic operations, think of using a stack.</t>
+  </si>
+  <si>
+    <t>2352. Equal Row and Column Pairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/equal-row-and-column-pairs/solutions/2324649/java-hashmap/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>The crux is to use 2 hashmaps, and iterate the columns while iterating rows. You can get the row values with grid[i][j] and col values with grid[j][i]. When you iterate the hashmaps to get the count, you need to get the product of the frequencies, not the sum, as each row can match with each col and vice versa. Optimally, only 1 map is needed.</t>
   </si>
 </sst>
 </file>
@@ -942,9 +951,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -1872,6 +1881,23 @@
       </c>
       <c r="E54" s="2" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1929,6 +1955,7 @@
     <hyperlink ref="E52" r:id="rId51" xr:uid="{89A26D84-0FC0-4582-9CA2-22A0A414EF61}"/>
     <hyperlink ref="E53" r:id="rId52" xr:uid="{1AA56464-3EB4-40DB-B7F9-FB6333C21FF7}"/>
     <hyperlink ref="E54" r:id="rId53" xr:uid="{0451FD0D-7DD5-4B5A-8894-28670CAD1CD0}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{753208C0-5AB6-4B55-8DF2-8A30426C453E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F118745-8E41-4B34-A31D-F0AE0A7E875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B55058-1D25-495B-B7BB-2C4548CBD945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="191">
   <si>
     <t>Question</t>
   </si>
@@ -600,6 +600,15 @@
   </si>
   <si>
     <t>The crux is to use 2 hashmaps, and iterate the columns while iterating rows. You can get the row values with grid[i][j] and col values with grid[j][i]. When you iterate the hashmaps to get the count, you need to get the product of the frequencies, not the sum, as each row can match with each col and vice versa. Optimally, only 1 map is needed.</t>
+  </si>
+  <si>
+    <t>649. Dota2 Senate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/dota2-senate/solutions/3483399/simple-diagram-explanation/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>The Optimal solution uses 2 queues and index comparisons. Use a queue, the actions that each node can take is only to add a ban count. Keep track of counts for each type of node and also ban counts. Push back into the q like a BFS if there are no bans in place. Make sure the return condition handles both 1 node remaining and if only 1 team's nodes remain.</t>
   </si>
 </sst>
 </file>
@@ -951,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,6 +1907,23 @@
       </c>
       <c r="E55" s="2" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1956,6 +1982,7 @@
     <hyperlink ref="E53" r:id="rId52" xr:uid="{1AA56464-3EB4-40DB-B7F9-FB6333C21FF7}"/>
     <hyperlink ref="E54" r:id="rId53" xr:uid="{0451FD0D-7DD5-4B5A-8894-28670CAD1CD0}"/>
     <hyperlink ref="E55" r:id="rId54" xr:uid="{753208C0-5AB6-4B55-8DF2-8A30426C453E}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{A199E782-D2B6-4D21-AAC4-57C2D6679DF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B55058-1D25-495B-B7BB-2C4548CBD945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130FE4D-CB95-4C9F-8EEC-9158CD0758C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="194">
   <si>
     <t>Question</t>
   </si>
@@ -609,6 +609,15 @@
   </si>
   <si>
     <t>The Optimal solution uses 2 queues and index comparisons. Use a queue, the actions that each node can take is only to add a ban count. Keep track of counts for each type of node and also ban counts. Push back into the q like a BFS if there are no bans in place. Make sure the return condition handles both 1 node remaining and if only 1 team's nodes remain.</t>
+  </si>
+  <si>
+    <t>437. Path Sum III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/path-sum-iii/solutions/91889/simple-java-dfs/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Classic Recursive DFS with O(n^2) worst case O(nlogn) best case in balanced tree Time and O(n) space. Call dfs on the root, left, and right. Dfs should be 1 or 0 + left and right, where the targetSum is targetSum - node.val. Remember to call DFS from the root, but recurse the original function on the left and the right! The optimal solution uses a hashmap for prefix Sum.</t>
   </si>
 </sst>
 </file>
@@ -960,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,6 +1933,23 @@
       </c>
       <c r="E56" s="2" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1983,6 +2009,7 @@
     <hyperlink ref="E54" r:id="rId53" xr:uid="{0451FD0D-7DD5-4B5A-8894-28670CAD1CD0}"/>
     <hyperlink ref="E55" r:id="rId54" xr:uid="{753208C0-5AB6-4B55-8DF2-8A30426C453E}"/>
     <hyperlink ref="E56" r:id="rId55" xr:uid="{A199E782-D2B6-4D21-AAC4-57C2D6679DF2}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{D5D439A2-CA88-48FA-A484-7A88078CCCCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130FE4D-CB95-4C9F-8EEC-9158CD0758C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6BA686-A68A-44BD-9AD5-C065D1986D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="197">
   <si>
     <t>Question</t>
   </si>
@@ -618,6 +618,15 @@
   </si>
   <si>
     <t>Classic Recursive DFS with O(n^2) worst case O(nlogn) best case in balanced tree Time and O(n) space. Call dfs on the root, left, and right. Dfs should be 1 or 0 + left and right, where the targetSum is targetSum - node.val. Remember to call DFS from the root, but recurse the original function on the left and the right! The optimal solution uses a hashmap for prefix Sum.</t>
+  </si>
+  <si>
+    <t>1372. Longest ZigZag Path in a Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-zigzag-path-in-a-binary-tree/solutions/531867/java-python-dfs-solution/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>For a simple solution, maintain a global max variable. Propagate the depth and the direction. Call the recursive function on both sides at the start, and at each node, check to override max, and then call dfs on both sides once again. If the conditions are maintained, add depth+1, else reset depth to 0.</t>
   </si>
 </sst>
 </file>
@@ -969,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,6 +1959,23 @@
       </c>
       <c r="E57" s="2" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2010,6 +2036,7 @@
     <hyperlink ref="E55" r:id="rId54" xr:uid="{753208C0-5AB6-4B55-8DF2-8A30426C453E}"/>
     <hyperlink ref="E56" r:id="rId55" xr:uid="{A199E782-D2B6-4D21-AAC4-57C2D6679DF2}"/>
     <hyperlink ref="E57" r:id="rId56" xr:uid="{D5D439A2-CA88-48FA-A484-7A88078CCCCA}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{806DFEF8-9220-4619-B876-7F7D95F341D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6BA686-A68A-44BD-9AD5-C065D1986D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE279F3-123C-4D96-A1BE-6B8E9678BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="200">
   <si>
     <t>Question</t>
   </si>
@@ -627,6 +627,15 @@
   </si>
   <si>
     <t>For a simple solution, maintain a global max variable. Propagate the depth and the direction. Call the recursive function on both sides at the start, and at each node, check to override max, and then call dfs on both sides once again. If the conditions are maintained, add depth+1, else reset depth to 0.</t>
+  </si>
+  <si>
+    <t>The crux is that we keep propagating the node p or q up if it is found, and null if not, until at some node, its left and right nodes are both not null.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/solutions/65226/my-java-solution-which-is-easy-to-understand/comments/709985 </t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -978,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,6 +1985,23 @@
       </c>
       <c r="E58" s="2" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2037,6 +2063,7 @@
     <hyperlink ref="E56" r:id="rId55" xr:uid="{A199E782-D2B6-4D21-AAC4-57C2D6679DF2}"/>
     <hyperlink ref="E57" r:id="rId56" xr:uid="{D5D439A2-CA88-48FA-A484-7A88078CCCCA}"/>
     <hyperlink ref="E58" r:id="rId57" xr:uid="{806DFEF8-9220-4619-B876-7F7D95F341D9}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{C7AC8D1B-06E9-4D87-ACDF-6CE7FA21EBF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE279F3-123C-4D96-A1BE-6B8E9678BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F036CF-F767-46EE-BA6A-40DA0869CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
   <si>
     <t>Question</t>
   </si>
@@ -636,6 +636,15 @@
   </si>
   <si>
     <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>1161. Maximum Level Sum of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Classic BFS on a binary tree. Maintain max level and sum. Make sure to handle negative values and null nodes. Only push non-null nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/solutions/360968/java-python-3-two-codes-language-bfs-level-traversal-and-dfs-level-sum/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -987,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,6 +2011,23 @@
       </c>
       <c r="E59" s="2" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2064,6 +2090,7 @@
     <hyperlink ref="E57" r:id="rId56" xr:uid="{D5D439A2-CA88-48FA-A484-7A88078CCCCA}"/>
     <hyperlink ref="E58" r:id="rId57" xr:uid="{806DFEF8-9220-4619-B876-7F7D95F341D9}"/>
     <hyperlink ref="E59" r:id="rId58" xr:uid="{C7AC8D1B-06E9-4D87-ACDF-6CE7FA21EBF7}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{23205C3C-E03D-4D53-9CD1-E460F0FD3B3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F036CF-F767-46EE-BA6A-40DA0869CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A63EB3-C041-453C-8129-1EE619EA1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -645,6 +645,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/solutions/360968/java-python-3-two-codes-language-bfs-level-traversal-and-dfs-level-sum/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>450. Delete Node in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/delete-node-in-a-bst/solutions/93296/recursive-easy-to-understand-java-solution/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>The crux is to recurse on the subtrees until root.val == key. Then there are 3 cases: Left subtree is null, Right subtree is null, and both subtrees exist. To handle the case where both exist, take the leftmode node of the right subtree as the new root, set parent.left as the right children of the new root (to not lose any leftover nodes), then set the left and right children of the new root as the children of the old root. In this manner, we delete the root node of the current recursive step (where root.val == key).</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,6 +2037,23 @@
       </c>
       <c r="E60" s="2" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2091,6 +2117,7 @@
     <hyperlink ref="E58" r:id="rId57" xr:uid="{806DFEF8-9220-4619-B876-7F7D95F341D9}"/>
     <hyperlink ref="E59" r:id="rId58" xr:uid="{C7AC8D1B-06E9-4D87-ACDF-6CE7FA21EBF7}"/>
     <hyperlink ref="E60" r:id="rId59" xr:uid="{23205C3C-E03D-4D53-9CD1-E460F0FD3B3C}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{D4A945FA-45EB-43E9-8374-D360218AE03E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A63EB3-C041-453C-8129-1EE619EA1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB2117-F367-431A-9BDB-A7175C6A3FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
   <si>
     <t>Question</t>
   </si>
@@ -654,6 +654,15 @@
   </si>
   <si>
     <t>The crux is to recurse on the subtrees until root.val == key. Then there are 3 cases: Left subtree is null, Right subtree is null, and both subtrees exist. To handle the case where both exist, take the leftmode node of the right subtree as the new root, set parent.left as the right children of the new root (to not lose any leftover nodes), then set the left and right children of the new root as the children of the old root. In this manner, we delete the root node of the current recursive step (where root.val == key).</t>
+  </si>
+  <si>
+    <t>1466. Reorder Routes to Make All Paths Lead to the City Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/solutions/661855/java-o-n-dfs-with-explanation/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>For Graph problems, create an adjacency list. The crux is that you transform each edge into a bi-directional edge, and when you go in the original direction, it costs 1, and not original, costs 0. Perform DFS on every node starting with the 0 node using a visited list, and accumulate costs. If it flows out, it needs to be reversed, so add 1, else add 0 and check the neighbors.</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D71" sqref="D70:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,6 +2063,23 @@
       </c>
       <c r="E61" s="2" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2118,6 +2144,7 @@
     <hyperlink ref="E59" r:id="rId58" xr:uid="{C7AC8D1B-06E9-4D87-ACDF-6CE7FA21EBF7}"/>
     <hyperlink ref="E60" r:id="rId59" xr:uid="{23205C3C-E03D-4D53-9CD1-E460F0FD3B3C}"/>
     <hyperlink ref="E61" r:id="rId60" xr:uid="{D4A945FA-45EB-43E9-8374-D360218AE03E}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{30E93616-66A2-4508-A954-C3165AF089F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB2117-F367-431A-9BDB-A7175C6A3FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B121E6-46C2-455F-84BF-C28BD5CA5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="212">
   <si>
     <t>Question</t>
   </si>
@@ -663,6 +663,15 @@
   </si>
   <si>
     <t>For Graph problems, create an adjacency list. The crux is that you transform each edge into a bi-directional edge, and when you go in the original direction, it costs 1, and not original, costs 0. Perform DFS on every node starting with the 0 node using a visited list, and accumulate costs. If it flows out, it needs to be reversed, so add 1, else add 0 and check the neighbors.</t>
+  </si>
+  <si>
+    <t>399. Evaluate Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/evaluate-division/solutions/1992891/java-dfs-solution-with-comments-evaluate-division/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Classic Graph problem. Build adj list from input and determine the weights. It is a bidirectional graph. Then for each query, perform graph DFS. The difficulty is in making the graph and dfs implementation. Make sure to practice using HashMaps.</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D71" sqref="D70:D71"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,6 +2089,23 @@
       </c>
       <c r="E62" s="2" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2145,6 +2171,7 @@
     <hyperlink ref="E60" r:id="rId59" xr:uid="{23205C3C-E03D-4D53-9CD1-E460F0FD3B3C}"/>
     <hyperlink ref="E61" r:id="rId60" xr:uid="{D4A945FA-45EB-43E9-8374-D360218AE03E}"/>
     <hyperlink ref="E62" r:id="rId61" xr:uid="{30E93616-66A2-4508-A954-C3165AF089F1}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{C64C9BC2-DCCC-40FD-B3F9-12E02648A555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B121E6-46C2-455F-84BF-C28BD5CA5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C7444-A1D4-4972-8965-86A795B991EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="215">
   <si>
     <t>Question</t>
   </si>
@@ -672,6 +672,15 @@
   </si>
   <si>
     <t>Classic Graph problem. Build adj list from input and determine the weights. It is a bidirectional graph. Then for each query, perform graph DFS. The difficulty is in making the graph and dfs implementation. Make sure to practice using HashMaps.</t>
+  </si>
+  <si>
+    <t>1926. Nearest Exit from Entrance in Maze</t>
+  </si>
+  <si>
+    <t>Classic Graph BFS. Construct the adjacency list, then perform BFS and check conditions. Return the level when a valid goal node is found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/nearest-exit-from-entrance-in-maze/solutions/2834640/java-explained-in-detail-simple-fast-solution-bfs/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,6 +2115,23 @@
       </c>
       <c r="E63" s="2" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2172,6 +2198,7 @@
     <hyperlink ref="E61" r:id="rId60" xr:uid="{D4A945FA-45EB-43E9-8374-D360218AE03E}"/>
     <hyperlink ref="E62" r:id="rId61" xr:uid="{30E93616-66A2-4508-A954-C3165AF089F1}"/>
     <hyperlink ref="E63" r:id="rId62" xr:uid="{C64C9BC2-DCCC-40FD-B3F9-12E02648A555}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{C5F5F780-6180-436D-9891-954235937689}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C7444-A1D4-4972-8965-86A795B991EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D222E3-DCA9-4A95-86BF-47265C58DB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="218">
   <si>
     <t>Question</t>
   </si>
@@ -681,6 +681,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/nearest-exit-from-entrance-in-maze/solutions/2834640/java-explained-in-detail-simple-fast-solution-bfs/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>2542. Maximum Subsequence Score</t>
+  </si>
+  <si>
+    <t>The crux is that we consider for each element of nums2[i] as aminimum once and check for max possible values in num1. We first sort nums2 and keep their mappings to nums1, then iterate the pairs maintaing a heap with size k. First form the pairs as int[][]. Iterate the pairs and sort with nums2 from large to small. Keep a priority queue of size k. Each time we introduce a new pair, maintain the min value of nums2 and the sum of the priority queue. If the size of the q &gt; k, pop min nums1, update sum -= nums1. If the size of q = k, update res = max(res, sum * nums2[i]).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-subsequence-score/solutions/3557445/java-solution-for-maximum-subsequence-score-problem/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,6 +2141,23 @@
       </c>
       <c r="E64" s="2" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2199,6 +2225,7 @@
     <hyperlink ref="E62" r:id="rId61" xr:uid="{30E93616-66A2-4508-A954-C3165AF089F1}"/>
     <hyperlink ref="E63" r:id="rId62" xr:uid="{C64C9BC2-DCCC-40FD-B3F9-12E02648A555}"/>
     <hyperlink ref="E64" r:id="rId63" xr:uid="{C5F5F780-6180-436D-9891-954235937689}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{9AB3AAD1-8E87-4A9F-9180-7469A4398142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D222E3-DCA9-4A95-86BF-47265C58DB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3064606-5A95-4132-9CDF-A093051AED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="221">
   <si>
     <t>Question</t>
   </si>
@@ -690,6 +690,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/maximum-subsequence-score/solutions/3557445/java-solution-for-maximum-subsequence-score-problem/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>2462. Total Cost to Hire K Workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/total-cost-to-hire-k-workers/solutions/3683067/beats-100-c-java-python-beginner-friendly/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Maintain 2 priority queues for beginning and end of the list. And at each iteration, compare tops, then poll the smallest and add to cost.</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,6 +2167,23 @@
       </c>
       <c r="E65" s="2" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2226,6 +2252,7 @@
     <hyperlink ref="E63" r:id="rId62" xr:uid="{C64C9BC2-DCCC-40FD-B3F9-12E02648A555}"/>
     <hyperlink ref="E64" r:id="rId63" xr:uid="{C5F5F780-6180-436D-9891-954235937689}"/>
     <hyperlink ref="E65" r:id="rId64" xr:uid="{9AB3AAD1-8E87-4A9F-9180-7469A4398142}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{9407C8FF-D01E-4A71-80E5-FA995D2E406B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3064606-5A95-4132-9CDF-A093051AED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95512B79-9218-419A-8A19-66ECFE584618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="224">
   <si>
     <t>Question</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>Maintain 2 priority queues for beginning and end of the list. And at each iteration, compare tops, then poll the smallest and add to cost.</t>
+  </si>
+  <si>
+    <t>2300. Successful Pairs of Spells and Potions</t>
+  </si>
+  <si>
+    <t>First sort the pairs array. For loop over all spells and do a binary search to find the first mid point which results in a success. Because we previously sorted potions, all indices after that are valid, so add that count to the pairs[i].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/successful-pairs-of-spells-and-potions/solutions/3367914/easy-solutions-in-java-python-and-c-look-at-once-with-exaplanation/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,6 +2193,23 @@
       </c>
       <c r="E66" s="2" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2253,6 +2279,7 @@
     <hyperlink ref="E64" r:id="rId63" xr:uid="{C5F5F780-6180-436D-9891-954235937689}"/>
     <hyperlink ref="E65" r:id="rId64" xr:uid="{9AB3AAD1-8E87-4A9F-9180-7469A4398142}"/>
     <hyperlink ref="E66" r:id="rId65" xr:uid="{9407C8FF-D01E-4A71-80E5-FA995D2E406B}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{62AF6134-C934-4549-94A3-4140D55A977D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95512B79-9218-419A-8A19-66ECFE584618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA27FBC1-5720-4B02-98D3-17B5A6142997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="227">
   <si>
     <t>Question</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/successful-pairs-of-spells-and-potions/solutions/3367914/easy-solutions-in-java-python-and-c-look-at-once-with-exaplanation/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>216. Combination Sum III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combination-sum-iii/solutions/60614/simple-and-clean-java-code-backtracking/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Classic backtracking. Remember the general formula and the parameters: res, comb, k, start, n. In the backtracking function: base case (including adding the combination to the res list), iterating with choose and not choose.</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,6 +2219,23 @@
       </c>
       <c r="E67" s="2" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2280,6 +2306,7 @@
     <hyperlink ref="E65" r:id="rId64" xr:uid="{9AB3AAD1-8E87-4A9F-9180-7469A4398142}"/>
     <hyperlink ref="E66" r:id="rId65" xr:uid="{9407C8FF-D01E-4A71-80E5-FA995D2E406B}"/>
     <hyperlink ref="E67" r:id="rId66" xr:uid="{62AF6134-C934-4549-94A3-4140D55A977D}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{88BC1F2C-5394-48C4-BF37-1F8638C0293B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA27FBC1-5720-4B02-98D3-17B5A6142997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8580A707-8D27-4582-BCE4-9C3E0F02CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="230">
   <si>
     <t>Question</t>
   </si>
@@ -717,6 +717,15 @@
   </si>
   <si>
     <t>Classic backtracking. Remember the general formula and the parameters: res, comb, k, start, n. In the backtracking function: base case (including adding the combination to the res list), iterating with choose and not choose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/domino-and-tromino-tiling/solutions/1620975/c-python-simple-solution-w-images-explanation-optimization-from-brute-force-to-dp/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>790. Domino and Tromino Tiling</t>
+  </si>
+  <si>
+    <t>A Fibonacci variation. The crux is to recognize the 6 types of shapes that can be made (using rotation), and the reccurrence relation of p1 * 2L + p3.</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,6 +2245,23 @@
       </c>
       <c r="E68" s="2" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2307,6 +2333,7 @@
     <hyperlink ref="E66" r:id="rId65" xr:uid="{9407C8FF-D01E-4A71-80E5-FA995D2E406B}"/>
     <hyperlink ref="E67" r:id="rId66" xr:uid="{62AF6134-C934-4549-94A3-4140D55A977D}"/>
     <hyperlink ref="E68" r:id="rId67" xr:uid="{88BC1F2C-5394-48C4-BF37-1F8638C0293B}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{C7D53A05-8133-46FB-977F-BBA942491A8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8580A707-8D27-4582-BCE4-9C3E0F02CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3532215-A5A1-4710-9F4D-94A100C6901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="233">
   <si>
     <t>Question</t>
   </si>
@@ -726,6 +726,15 @@
   </si>
   <si>
     <t>A Fibonacci variation. The crux is to recognize the 6 types of shapes that can be made (using rotation), and the reccurrence relation of p1 * 2L + p3.</t>
+  </si>
+  <si>
+    <t>901. Online Stock Span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/online-stock-span/solutions/168311/c-java-python-o-1/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Push every pair of &lt;price, result&gt; to a stack. Pop the lower price from the stack and accumulate the count. We can keep popping from the stack when we call next() because we store the result at the time of pushing each element. Thus we maintain the stack invariant and we effectively collapse the spans into a single value.</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,6 +2271,23 @@
       </c>
       <c r="E69" s="2" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2334,6 +2360,7 @@
     <hyperlink ref="E67" r:id="rId66" xr:uid="{62AF6134-C934-4549-94A3-4140D55A977D}"/>
     <hyperlink ref="E68" r:id="rId67" xr:uid="{88BC1F2C-5394-48C4-BF37-1F8638C0293B}"/>
     <hyperlink ref="E69" r:id="rId68" xr:uid="{C7D53A05-8133-46FB-977F-BBA942491A8B}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{E80080A9-9E57-41D5-90B3-42F166588DED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3532215-A5A1-4710-9F4D-94A100C6901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0500BE37-ED9B-4793-958E-B9D13512EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="236">
   <si>
     <t>Question</t>
   </si>
@@ -735,6 +735,15 @@
   </si>
   <si>
     <t>Push every pair of &lt;price, result&gt; to a stack. Pop the lower price from the stack and accumulate the count. We can keep popping from the stack when we call next() because we store the result at the time of pushing each element. Thus we maintain the stack invariant and we effectively collapse the spans into a single value.</t>
+  </si>
+  <si>
+    <t>452. Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>Greedy approach. First sort the balloons by their ending position with Integer.compare(a[1],b[1]), then iterate, shooting the arrow at the ending position of the current balloon, then start again from the next one. You iterate by points[i][1] and set the arrow there, then check if points[i][0] falls in that range. If it is, you continue without iterating arrow count or shifting the arrow position. For large values, you have to use Integer compare, or convert to long first.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/solutions/1686627/c-java-python-6-lines-sort-and-greedy-image-explanation/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,6 +2297,23 @@
       </c>
       <c r="E70" s="2" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2361,6 +2387,7 @@
     <hyperlink ref="E68" r:id="rId67" xr:uid="{88BC1F2C-5394-48C4-BF37-1F8638C0293B}"/>
     <hyperlink ref="E69" r:id="rId68" xr:uid="{C7D53A05-8133-46FB-977F-BBA942491A8B}"/>
     <hyperlink ref="E70" r:id="rId69" xr:uid="{E80080A9-9E57-41D5-90B3-42F166588DED}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{8C578E30-08C8-4B95-AFDC-D0F8BB8A8D31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0500BE37-ED9B-4793-958E-B9D13512EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878CDDF1-AC1E-45A5-B5B9-173682BFA38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="243">
   <si>
     <t>Question</t>
   </si>
@@ -744,6 +744,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/solutions/1686627/c-java-python-6-lines-sort-and-greedy-image-explanation/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>1268. Search Suggestions System</t>
+  </si>
+  <si>
+    <t>Tries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/search-suggestions-system/solutions/436151/java-python-3-simple-trie-and-binary-search-codes-w-comment-and-brief-analysis/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>Classic Trie, but can be solved with Binary Search. Use DS principles. Class Trie with linked list for suggestions.</t>
+  </si>
+  <si>
+    <t>1318. Minimum Flips to Make a OR b Equal to c</t>
+  </si>
+  <si>
+    <t>Quick trick is use Integer.bitCount(), but from first principles, use a bit mask.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/minimum-flips-to-make-a-or-b-equal-to-c/solutions/477690/java-python-3-bit-manipulation-w-explanation-and-analysis/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,6 +2335,40 @@
       </c>
       <c r="E71" s="2" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2388,6 +2443,8 @@
     <hyperlink ref="E69" r:id="rId68" xr:uid="{C7D53A05-8133-46FB-977F-BBA942491A8B}"/>
     <hyperlink ref="E70" r:id="rId69" xr:uid="{E80080A9-9E57-41D5-90B3-42F166588DED}"/>
     <hyperlink ref="E71" r:id="rId70" xr:uid="{8C578E30-08C8-4B95-AFDC-D0F8BB8A8D31}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{85178379-D2CB-481C-A06D-76A4A23A4AE3}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{6314FEA8-666D-4BEB-9C8B-470710D2C03C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878CDDF1-AC1E-45A5-B5B9-173682BFA38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1C8F1-1BDB-4B66-B783-69E71E699547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="246">
   <si>
     <t>Question</t>
   </si>
@@ -765,6 +765,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/minimum-flips-to-make-a-or-b-equal-to-c/solutions/477690/java-python-3-bit-manipulation-w-explanation-and-analysis/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t>380. Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Use a HashMap for O(1) storage. Maintain a list to store the values for random retrieval, and keep in sync with the hashmap. When removing, need to shift the list elements by overwriting the removal index with the last element in the list currently, then updating the map to reflect that index. This is done to prevent shifting of ArrayList elements and breaking the O(1) condition. Use int randomIndex = (int) (Math.random() * index.size()); to get a random element in the array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/insert-delete-getrandom-o1/solutions/85401/java-solution-using-a-hashmap-and-an-arraylist-along-with-a-follow-up-131-ms/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,6 +2378,23 @@
       </c>
       <c r="E73" s="2" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2445,6 +2471,7 @@
     <hyperlink ref="E71" r:id="rId70" xr:uid="{8C578E30-08C8-4B95-AFDC-D0F8BB8A8D31}"/>
     <hyperlink ref="E72" r:id="rId71" xr:uid="{85178379-D2CB-481C-A06D-76A4A23A4AE3}"/>
     <hyperlink ref="E73" r:id="rId72" xr:uid="{6314FEA8-666D-4BEB-9C8B-470710D2C03C}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{AFD0D166-F618-4C10-95BF-57CAFB235DA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1C8F1-1BDB-4B66-B783-69E71E699547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F59130-7DAF-4C5A-81E1-D6EAA1B45A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="249">
   <si>
     <t>Question</t>
   </si>
@@ -774,6 +774,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/insert-delete-getrandom-o1/solutions/85401/java-solution-using-a-hashmap-and-an-arraylist-along-with-a-follow-up-131-ms/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>433. Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t>The crux is to use BFS, iterating each char in the current gene string and trying each of the 4 possible choices. If the mutation is valid, add to the BFS q and mark visited, then set the string back to the original. After all places in the string are tried, iterate level, then look in neighbors in the BFS. For preprocessing, create a hashset of the gene bank for O(1) lookup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/minimum-genetic-mutation/solutions/91484/java-solution-using-bfs/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,6 +2404,23 @@
       </c>
       <c r="E74" s="2" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2472,6 +2498,7 @@
     <hyperlink ref="E72" r:id="rId71" xr:uid="{85178379-D2CB-481C-A06D-76A4A23A4AE3}"/>
     <hyperlink ref="E73" r:id="rId72" xr:uid="{6314FEA8-666D-4BEB-9C8B-470710D2C03C}"/>
     <hyperlink ref="E74" r:id="rId73" xr:uid="{AFD0D166-F618-4C10-95BF-57CAFB235DA1}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{1C8835B0-8B9F-472E-8E95-50FCA2E16DD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F59130-7DAF-4C5A-81E1-D6EAA1B45A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78186B8-3C7D-4E15-A732-1BD0EFD38DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="252">
   <si>
     <t>Question</t>
   </si>
@@ -783,6 +783,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/minimum-genetic-mutation/solutions/91484/java-solution-using-bfs/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>86. Partition List</t>
+  </si>
+  <si>
+    <t>The naïve solution is to do 1 pass to find the rightmost node which is less than x, then 2nd pass to start moving all nodes greater to the right of it, but it results in TLE. The optimal solution is to build 2 lists (before and after lists), then connect them after in 1 pass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/partition-list/solutions/29183/concise-java-code-with-explanation-one-pass/comments/122356 </t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,6 +2430,23 @@
       </c>
       <c r="E75" s="2" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2499,6 +2525,7 @@
     <hyperlink ref="E73" r:id="rId72" xr:uid="{6314FEA8-666D-4BEB-9C8B-470710D2C03C}"/>
     <hyperlink ref="E74" r:id="rId73" xr:uid="{AFD0D166-F618-4C10-95BF-57CAFB235DA1}"/>
     <hyperlink ref="E75" r:id="rId74" xr:uid="{1C8835B0-8B9F-472E-8E95-50FCA2E16DD9}"/>
+    <hyperlink ref="E76" r:id="rId75" xr:uid="{F31A34E8-ABBD-4EDD-82F1-D2DD28C52E0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78186B8-3C7D-4E15-A732-1BD0EFD38DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E911B6-F042-43EE-8091-DF11EC46B9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="255">
   <si>
     <t>Question</t>
   </si>
@@ -792,6 +792,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/partition-list/solutions/29183/concise-java-code-with-explanation-one-pass/comments/122356 </t>
+  </si>
+  <si>
+    <t>129. Sum Root to Leaf numbers</t>
+  </si>
+  <si>
+    <t>The optimal is with recursion and currSum += currSum * 10 = + root.val, then recurse on left and right. Also, we can perform DFS and maintain an ArrayList with digits and a global sum. In the DFS, make sure to backtrack the current node's value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sum-root-to-leaf-numbers/solutions/41363/short-java-solution-recursion/comments/39619 </t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,6 +2456,23 @@
       </c>
       <c r="E76" s="2" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2526,6 +2552,7 @@
     <hyperlink ref="E74" r:id="rId73" xr:uid="{AFD0D166-F618-4C10-95BF-57CAFB235DA1}"/>
     <hyperlink ref="E75" r:id="rId74" xr:uid="{1C8835B0-8B9F-472E-8E95-50FCA2E16DD9}"/>
     <hyperlink ref="E76" r:id="rId75" xr:uid="{F31A34E8-ABBD-4EDD-82F1-D2DD28C52E0A}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{3C9FF9EA-3484-4DF7-9BAA-3AF06CB94C37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E911B6-F042-43EE-8091-DF11EC46B9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C5C678-D48F-46A7-B956-AACA7F9389BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
   <si>
     <t>Question</t>
   </si>
@@ -801,6 +801,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/sum-root-to-leaf-numbers/solutions/41363/short-java-solution-recursion/comments/39619 </t>
+  </si>
+  <si>
+    <t>222. Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Check left and right heights. If they are equal, then the tree is complete and return 2^h -1, else recursively calculate the number of nodes in left and right and add 1 for root. The optimization is that you can get the jheight of a tree just by going left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/count-complete-tree-nodes/solutions/61958/concise-java-solutions-o-log-n-2/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,6 +2482,23 @@
       </c>
       <c r="E77" s="2" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>255</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2553,6 +2579,7 @@
     <hyperlink ref="E75" r:id="rId74" xr:uid="{1C8835B0-8B9F-472E-8E95-50FCA2E16DD9}"/>
     <hyperlink ref="E76" r:id="rId75" xr:uid="{F31A34E8-ABBD-4EDD-82F1-D2DD28C52E0A}"/>
     <hyperlink ref="E77" r:id="rId76" xr:uid="{3C9FF9EA-3484-4DF7-9BAA-3AF06CB94C37}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{9E727E47-93A4-473A-8D42-19323A09A444}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C5C678-D48F-46A7-B956-AACA7F9389BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E81B6-F116-463F-A74C-D0C82F94C788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="261">
   <si>
     <t>Question</t>
   </si>
@@ -810,6 +810,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/count-complete-tree-nodes/solutions/61958/concise-java-solutions-o-log-n-2/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>918. Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-sum-circular-subarray/solutions/633401/kadane-algorithm-trick-beats-100-java-explained/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>We use Kadane's algorithm. The subarray can either be contained in one pass (middle) of the array, in which case we do max subarray, and if the subarray is split left and right, we use Kadane's to find the max subarray sum. We can subtract the minimum subarray sum from the total to get it.</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,6 +2508,23 @@
       </c>
       <c r="E78" s="2" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2580,6 +2606,7 @@
     <hyperlink ref="E76" r:id="rId75" xr:uid="{F31A34E8-ABBD-4EDD-82F1-D2DD28C52E0A}"/>
     <hyperlink ref="E77" r:id="rId76" xr:uid="{3C9FF9EA-3484-4DF7-9BAA-3AF06CB94C37}"/>
     <hyperlink ref="E78" r:id="rId77" xr:uid="{9E727E47-93A4-473A-8D42-19323A09A444}"/>
+    <hyperlink ref="E79" r:id="rId78" xr:uid="{4106909D-2B79-401B-9819-79322EFD5057}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E81B6-F116-463F-A74C-D0C82F94C788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF544AB-734F-4151-8015-33E39C04CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="265">
   <si>
     <t>Question</t>
   </si>
@@ -819,6 +819,18 @@
   </si>
   <si>
     <t>We use Kadane's algorithm. The subarray can either be contained in one pass (middle) of the array, in which case we do max subarray, and if the subarray is split left and right, we use Kadane's to find the max subarray sum. We can subtract the minimum subarray sum from the total to get it.</t>
+  </si>
+  <si>
+    <t>172. Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/factorial-trailing-zeroes/solutions/52371/my-one-line-solutions-in-3-languages/comments/53281 </t>
+  </si>
+  <si>
+    <t>The crux is we just count how many 5 factors in all number from 1 to n.</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,6 +2537,23 @@
       </c>
       <c r="E79" s="2" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2607,6 +2636,7 @@
     <hyperlink ref="E77" r:id="rId76" xr:uid="{3C9FF9EA-3484-4DF7-9BAA-3AF06CB94C37}"/>
     <hyperlink ref="E78" r:id="rId77" xr:uid="{9E727E47-93A4-473A-8D42-19323A09A444}"/>
     <hyperlink ref="E79" r:id="rId78" xr:uid="{4106909D-2B79-401B-9819-79322EFD5057}"/>
+    <hyperlink ref="E80" r:id="rId79" xr:uid="{4223715A-41DE-418D-B692-8965F343C12D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF544AB-734F-4151-8015-33E39C04CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BECC4-A5B7-4523-85B6-971598AF75A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="268">
   <si>
     <t>Question</t>
   </si>
@@ -831,6 +831,15 @@
   </si>
   <si>
     <t>The crux is we just count how many 5 factors in all number from 1 to n.</t>
+  </si>
+  <si>
+    <t>13. Roman to Integer</t>
+  </si>
+  <si>
+    <t>First, map the conversions of digits to integer in a hashmap. Understand the condition in a for loop, if a numeral with a smaller value precedes one with a larger value, we subtract the value from the total, otherwise we add the value to the total. At the end, add the last character value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/roman-to-integer/solutions/579590/java-efficient-easy-to-understand-with-explaination/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,6 +2563,23 @@
       </c>
       <c r="E80" s="2" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>265</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2637,6 +2663,7 @@
     <hyperlink ref="E78" r:id="rId77" xr:uid="{9E727E47-93A4-473A-8D42-19323A09A444}"/>
     <hyperlink ref="E79" r:id="rId78" xr:uid="{4106909D-2B79-401B-9819-79322EFD5057}"/>
     <hyperlink ref="E80" r:id="rId79" xr:uid="{4223715A-41DE-418D-B692-8965F343C12D}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{02B0CEA4-2AB0-411E-A2F7-B7EC587C1C56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BECC4-A5B7-4523-85B6-971598AF75A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60BD5E-70CD-4EE9-B7C2-B4A9CA081AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="274">
   <si>
     <t>Question</t>
   </si>
@@ -840,6 +840,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/roman-to-integer/solutions/579590/java-efficient-easy-to-understand-with-explaination/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>12. Integer to Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create string arrays for all M, C, X, I, then return the sum of index of each using num/1000, num%1000/100, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/integer-to-roman/solutions/6274/simple-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>58. Length of Last Word</t>
+  </si>
+  <si>
+    <t>Simply iterate from the last char, check if not ' ', then return l.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/length-of-last-word/solutions/370636/java-0ms-100-100-single-reverse-loop-with-explanation/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,13 +2591,44 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>266</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2664,6 +2713,8 @@
     <hyperlink ref="E79" r:id="rId78" xr:uid="{4106909D-2B79-401B-9819-79322EFD5057}"/>
     <hyperlink ref="E80" r:id="rId79" xr:uid="{4223715A-41DE-418D-B692-8965F343C12D}"/>
     <hyperlink ref="E81" r:id="rId80" xr:uid="{02B0CEA4-2AB0-411E-A2F7-B7EC587C1C56}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{C0BD15A3-037C-4031-9A66-6FE3CB654A74}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{3129A68B-0F69-4729-96C5-F4B919F28418}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60BD5E-70CD-4EE9-B7C2-B4A9CA081AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C093A44-0EAF-4D36-8336-C00975CCE505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="277">
   <si>
     <t>Question</t>
   </si>
@@ -858,6 +858,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/length-of-last-word/solutions/370636/java-0ms-100-100-single-reverse-loop-with-explanation/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>14. Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Sort the array first, then iterate from the 0 index for the first and last word in the words. This is because the prefix must be shared with the first and last word. Once they do not match, return substring(0,idx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-common-prefix/solutions/3174307/well-explained-code-using-strings-in-java/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,11 +2633,31 @@
       <c r="B83" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
       <c r="D83" t="s">
         <v>272</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>275</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2715,6 +2744,7 @@
     <hyperlink ref="E81" r:id="rId80" xr:uid="{02B0CEA4-2AB0-411E-A2F7-B7EC587C1C56}"/>
     <hyperlink ref="E82" r:id="rId81" xr:uid="{C0BD15A3-037C-4031-9A66-6FE3CB654A74}"/>
     <hyperlink ref="E83" r:id="rId82" xr:uid="{3129A68B-0F69-4729-96C5-F4B919F28418}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{39AED362-27A0-4FCD-BAE5-38827A94121A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C093A44-0EAF-4D36-8336-C00975CCE505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D6BDFF-7515-4C9A-91DB-0861C7979FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="280">
   <si>
     <t>Question</t>
   </si>
@@ -867,6 +867,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/longest-common-prefix/solutions/3174307/well-explained-code-using-strings-in-java/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>6. Zigzag Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/zigzag-conversion/solutions/4309923/java-easy-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>We need to keep collecting characters from the original string to corresponding Strings in a String array. Keep track of indices i and j to keep them in bound.</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,6 +2667,23 @@
       </c>
       <c r="E84" s="2" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2745,6 +2771,7 @@
     <hyperlink ref="E82" r:id="rId81" xr:uid="{C0BD15A3-037C-4031-9A66-6FE3CB654A74}"/>
     <hyperlink ref="E83" r:id="rId82" xr:uid="{3129A68B-0F69-4729-96C5-F4B919F28418}"/>
     <hyperlink ref="E84" r:id="rId83" xr:uid="{39AED362-27A0-4FCD-BAE5-38827A94121A}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{2D61FCFC-CFF4-4B66-AA9A-D75B6D60EC6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D6BDFF-7515-4C9A-91DB-0861C7979FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070E8D1-48CE-4A7C-AC6F-F321582F164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="286">
   <si>
     <t>Question</t>
   </si>
@@ -876,6 +876,24 @@
   </si>
   <si>
     <t>We need to keep collecting characters from the original string to corresponding Strings in a String array. Keep track of indices i and j to keep them in bound.</t>
+  </si>
+  <si>
+    <t>28. Find the Index of the First Occurrence in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can use a 2d for loop to iterate the haystack's chars and needle's chars. If i + needle length &gt; haystack length, immediately break, iterate if haystack.charAt(i+j) is equal to needle.charAt(j) and iterate until j == needle length. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/solutions/12807/elegant-java-solution/comments/142986 </t>
+  </si>
+  <si>
+    <t>69. Sqrt(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sqrtx/solutions/25057/3-4-short-lines-integer-newton-every-language/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Optimally, use the Newton method. Otherwise, use binary search with the search condition of the square of mid &gt; mid.</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,6 +2702,40 @@
       </c>
       <c r="E85" s="2" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>281</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2772,6 +2824,8 @@
     <hyperlink ref="E83" r:id="rId82" xr:uid="{3129A68B-0F69-4729-96C5-F4B919F28418}"/>
     <hyperlink ref="E84" r:id="rId83" xr:uid="{39AED362-27A0-4FCD-BAE5-38827A94121A}"/>
     <hyperlink ref="E85" r:id="rId84" xr:uid="{2D61FCFC-CFF4-4B66-AA9A-D75B6D60EC6C}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{C7DD88AF-1EB3-4BEF-B67E-186218492428}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{FE6EA361-3CEB-4641-B3D5-30D1B3D97004}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070E8D1-48CE-4A7C-AC6F-F321582F164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7271402-87EF-4358-B5DF-527FCA0A06ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="289">
   <si>
     <t>Question</t>
   </si>
@@ -894,6 +894,15 @@
   </si>
   <si>
     <t>Optimally, use the Newton method. Otherwise, use binary search with the search condition of the square of mid &gt; mid.</t>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/powx-n/solutions/1337794/java-c-simple-o-log-n-easy-faster-than-100-explained/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Naively, we can multiply x n times if positive, and divide if negative, but it is suboptimal. To improve, we use Bionary expnoentiation for O(logn) time. The basic idea is to divide the work using binary representation of exponents. Understand why unsigned right shift instead of regular right shift. Discuss the different methods: nested myPow, double myPow, double x, iterative.</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,6 +2745,23 @@
       </c>
       <c r="E87" s="2" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" t="s">
+        <v>288</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2826,6 +2852,7 @@
     <hyperlink ref="E85" r:id="rId84" xr:uid="{2D61FCFC-CFF4-4B66-AA9A-D75B6D60EC6C}"/>
     <hyperlink ref="E86" r:id="rId85" xr:uid="{C7DD88AF-1EB3-4BEF-B67E-186218492428}"/>
     <hyperlink ref="E87" r:id="rId86" xr:uid="{FE6EA361-3CEB-4641-B3D5-30D1B3D97004}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{9DA40AAA-02F6-48A5-B0CC-22BCC98D0D7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7271402-87EF-4358-B5DF-527FCA0A06ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75139BBA-856E-4141-9435-7C2EC518B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="293">
   <si>
     <t>Question</t>
   </si>
@@ -903,6 +903,18 @@
   </si>
   <si>
     <t>Naively, we can multiply x n times if positive, and divide if negative, but it is suboptimal. To improve, we use Bionary expnoentiation for O(logn) time. The basic idea is to divide the work using binary representation of exponents. Understand why unsigned right shift instead of regular right shift. Discuss the different methods: nested myPow, double myPow, double x, iterative.</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>136. Candy</t>
+  </si>
+  <si>
+    <t>There are 2 strategies: Greedy 2 pass (left and right), and one pass up-down-peak method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/candy/solutions/4037646/99-20-greedy-two-one-pass/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -934,7 +946,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +965,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -967,12 +985,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1254,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,6 +2781,23 @@
       </c>
       <c r="E88" s="2" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>291</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2853,6 +2889,7 @@
     <hyperlink ref="E86" r:id="rId85" xr:uid="{C7DD88AF-1EB3-4BEF-B67E-186218492428}"/>
     <hyperlink ref="E87" r:id="rId86" xr:uid="{FE6EA361-3CEB-4641-B3D5-30D1B3D97004}"/>
     <hyperlink ref="E88" r:id="rId87" xr:uid="{9DA40AAA-02F6-48A5-B0CC-22BCC98D0D7A}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{60D3A049-4018-46CB-AF0C-D45EB3B27037}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150_LC75.xlsx
+++ b/java/TopInterview150_LC75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75139BBA-856E-4141-9435-7C2EC518B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17656062-F008-4A53-A4E2-67677C69B167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="296">
   <si>
     <t>Question</t>
   </si>
@@ -915,6 +915,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/candy/solutions/4037646/99-20-greedy-two-one-pass/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>68. Text Justification</t>
+  </si>
+  <si>
+    <t>Use multiple functions: findRight: start left then greedily try to go as far right as possible until we fill our current line. Then justify one line at a time. Justify: in all cases we pad the right side with spaces until we reach max width for the line; 1. If it's one word, then te result is just that word. 2. If it's the last line then the result is all words separated by a single space. 3. Otherwise, calculate the size of each space evenly and if there is a remainder we distribute an extra space until it is gone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/text-justification/solutions/24902/java-easy-to-understand-broken-into-several-functions/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,6 +2807,23 @@
       </c>
       <c r="E89" s="2" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>294</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2890,6 +2916,7 @@
     <hyperlink ref="E87" r:id="rId86" xr:uid="{FE6EA361-3CEB-4641-B3D5-30D1B3D97004}"/>
     <hyperlink ref="E88" r:id="rId87" xr:uid="{9DA40AAA-02F6-48A5-B0CC-22BCC98D0D7A}"/>
     <hyperlink ref="E89" r:id="rId88" xr:uid="{60D3A049-4018-46CB-AF0C-D45EB3B27037}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{90A10307-3F1A-45E7-979C-F0B6C01287BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
